--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14895" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E20"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Message</t>
-  </si>
-  <si>
-    <t>Disabled</t>
   </si>
   <si>
     <t>modified</t>
@@ -91,9 +88,6 @@
     <t>Palak</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t>40021</t>
   </si>
   <si>
@@ -109,7 +103,43 @@
     <t>ProductQA</t>
   </si>
   <si>
-    <t>Enabled</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>ApplicationSupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebration </t>
+  </si>
+  <si>
+    <t>celebrating holi in office</t>
+  </si>
+  <si>
+    <t>celebration</t>
+  </si>
+  <si>
+    <t>UOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets plan for weekend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets plan </t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Enable</t>
   </si>
 </sst>
 </file>
@@ -438,36 +468,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -476,27 +506,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -506,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -536,30 +612,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -583,18 +687,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -604,10 +708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,18 +721,14 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -646,18 +746,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="B1:H20"/>
 </workbook>
 </file>
 
@@ -106,18 +106,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>ApplicationSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celebration </t>
-  </si>
-  <si>
     <t>celebrating holi in office</t>
   </si>
   <si>
@@ -139,7 +127,21 @@
     <t>Disable</t>
   </si>
   <si>
-    <t>Enable</t>
+    <t>Select TeamID
+  From [Product_OCM].[dbo].[AGT_Teams]
+  where TeamName= 'USA';</t>
+  </si>
+  <si>
+    <t>Happy Holi</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Happy Holi updated</t>
   </si>
 </sst>
 </file>
@@ -182,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,6 +193,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -470,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,23 +538,14 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,13 +562,13 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -582,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,9 +590,10 @@
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -609,22 +606,28 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -632,35 +635,35 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -708,10 +711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +730,11 @@
     <row r="2" spans="1:1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:H20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Deleted</t>
-  </si>
-  <si>
-    <t>Happy Lohri</t>
   </si>
   <si>
     <t>Query</t>
@@ -109,39 +106,32 @@
     <t>celebrating holi in office</t>
   </si>
   <si>
-    <t>celebration</t>
-  </si>
-  <si>
     <t>UOB</t>
   </si>
   <si>
     <t xml:space="preserve">lets plan for weekend </t>
   </si>
   <si>
-    <t xml:space="preserve">lets plan </t>
-  </si>
-  <si>
     <t>enable</t>
   </si>
   <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>Select TeamID
-  From [Product_OCM].[dbo].[AGT_Teams]
-  where TeamName= 'USA';</t>
-  </si>
-  <si>
     <t>Happy Holi</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
-    <t>Happy Holi updated</t>
+    <t>Welcome To Tetherfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Status </t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Delete from [Product_OCM].[dbo].[AGT_Broadcast_Messages] 
+where Message='celebrating holi in office'</t>
   </si>
 </sst>
 </file>
@@ -475,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,36 +506,36 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,22 +543,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -578,22 +568,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -609,66 +600,65 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -714,7 +704,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,17 +714,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -754,18 +744,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -69,13 +69,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>Select [Product_OCM].[dbo].[AGT_Broadcast_Messages].Message
-  ,[Product_OCM].[dbo].[AGT_Broadcast_Messages].Status
-  ,[Product_OCM].[dbo].[AGT_Teams] .TeamName as "Team Name"
-  From [Product_OCM].[dbo].[AGT_Broadcast_Messages]
-Inner Join [Product_OCM].[dbo].[AGT_Teams]  on [Product_OCM].[dbo].[AGT_Teams].TeamID=[Product_OCM].[dbo].[AGT_Broadcast_Messages].Location;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lan Id </t>
   </si>
   <si>
@@ -97,9 +90,6 @@
     <t>Bengaluru</t>
   </si>
   <si>
-    <t>ProductQA</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -130,8 +120,27 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>Delete from [Product_OCM].[dbo].[AGT_Broadcast_Messages] 
-where Message='celebrating holi in office'</t>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>Select [AGT_Broadcast_Messages].Message
+  ,[AGT_Broadcast_Messages].Status
+  ,[AGT_Teams] .TeamName as "Team Name"
+  From [AGT_Broadcast_Messages]
+Inner Join [AGT_Teams]  on [AGT_Teams].TeamID=[AGT_Broadcast_Messages].Location;</t>
+  </si>
+  <si>
+    <t>Delete from [AGT_Broadcast_Messages] 
+where Message='Welcome To Tetherfi'</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,13 +474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -486,10 +495,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -506,22 +515,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -529,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,22 +552,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -570,13 +579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -601,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,19 +618,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,33 +638,33 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
@@ -704,7 +713,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,12 +728,12 @@
     </row>
     <row r="2" spans="1:1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,18 +753,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:F12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -141,6 +141,10 @@
   <si>
     <t>Delete from [AGT_Broadcast_Messages] 
 where Message='Welcome To Tetherfi'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Delete From [AGT_Teams]
+  Where TeamName IN('IT Department','Oceania','NewZealand')</t>
   </si>
 </sst>
 </file>
@@ -464,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +479,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -710,10 +714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,16 +730,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F12"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
@@ -468,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:J18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -130,21 +130,33 @@
   </si>
   <si>
     <t>Test Team</t>
+  </si>
+  <si>
+    <t>Delete from [AGT_Broadcast_Messages] 
+where Message='Welcome To Tetherfi'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Delete From [AGT_Teams]
+  Where TeamName IN('IT Department','Oceania','NewZealand')</t>
+  </si>
+  <si>
+    <t>Tetherfi Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetherfi </t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
   <si>
     <t>Select [AGT_Broadcast_Messages].Message
   ,[AGT_Broadcast_Messages].Status
-  ,[AGT_Teams] .TeamName as "Team Name"
+  ,[AGT_Teams] .TeamName as "Org. Unit"
   From [AGT_Broadcast_Messages]
 Inner Join [AGT_Teams]  on [AGT_Teams].TeamID=[AGT_Broadcast_Messages].Location;</t>
-  </si>
-  <si>
-    <t>Delete from [AGT_Broadcast_Messages] 
-where Message='Welcome To Tetherfi'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delete From [AGT_Teams]
-  Where TeamName IN('IT Department','Oceania','NewZealand')</t>
   </si>
 </sst>
 </file>
@@ -208,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -572,6 +587,26 @@
       </c>
       <c r="G4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -581,9 +616,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -671,7 +706,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -714,10 +748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,20 +766,19 @@
     </row>
     <row r="2" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TMAC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:O24"/>
 </workbook>
 </file>
 
@@ -494,7 +494,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="4" r:id="rId3"/>
-    <sheet name="Queries" sheetId="5" r:id="rId4"/>
-    <sheet name="TMAC" sheetId="6" r:id="rId5"/>
+    <sheet name="Invalid" sheetId="7" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="4" r:id="rId4"/>
+    <sheet name="Queries" sheetId="5" r:id="rId5"/>
+    <sheet name="TMAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -157,6 +158,9 @@
   ,[AGT_Teams] .TeamName as "Org. Unit"
   From [AGT_Broadcast_Messages]
 Inner Join [AGT_Teams]  on [AGT_Teams].TeamID=[AGT_Broadcast_Messages].Location;</t>
+  </si>
+  <si>
+    <t>Tetherfi Technology</t>
   </si>
 </sst>
 </file>
@@ -494,7 +498,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +620,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -668,8 +739,8 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -746,7 +817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -784,7 +855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="4875" yWindow="3900" windowWidth="15600" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O10"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -94,9 +94,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>celebrating holi in office</t>
-  </si>
-  <si>
     <t>UOB</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>Welcome To Tetherfi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updated Status </t>
   </si>
   <si>
@@ -131,10 +125,6 @@
   </si>
   <si>
     <t>Test Team</t>
-  </si>
-  <si>
-    <t>Delete from [AGT_Broadcast_Messages] 
-where Message='Welcome To Tetherfi'</t>
   </si>
   <si>
     <t xml:space="preserve">  Delete From [AGT_Teams]
@@ -161,6 +151,13 @@
   </si>
   <si>
     <t>Tetherfi Technology</t>
+  </si>
+  <si>
+    <t>Delete from [AGT_Broadcast_Messages] 
+where Message='Tetherfi Technology'</t>
+  </si>
+  <si>
+    <t>evet</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,12 +494,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
@@ -538,22 +536,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,10 +562,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,33 +582,33 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -620,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,22 +660,27 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,55 +731,23 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -822,7 +793,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,17 +808,17 @@
     </row>
     <row r="2" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C504F81F-151B-44AC-9665-EF82D563C1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="3900" windowWidth="15600" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15630" windowHeight="10080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -15,12 +16,12 @@
     <sheet name="TMAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -159,11 +160,20 @@
   <si>
     <t>evet</t>
   </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Hap</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,14 +494,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,17 +670,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -827,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C504F81F-151B-44AC-9665-EF82D563C1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15630" windowHeight="10080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="TMAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
@@ -154,26 +153,26 @@
     <t>Tetherfi Technology</t>
   </si>
   <si>
+    <t>evet</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Hap</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
     <t>Delete from [AGT_Broadcast_Messages] 
 where Message='Tetherfi Technology'</t>
   </si>
-  <si>
-    <t>evet</t>
-  </si>
-  <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Hap</t>
-  </si>
-  <si>
-    <t>unite</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,14 +493,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -627,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -670,17 +669,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +689,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -764,10 +763,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -799,11 +798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +822,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -837,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C0BDFA-0364-4A9C-8886-0BDE2E179F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
     <sheet name="Invalid" sheetId="7" r:id="rId2"/>
-    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Edit" sheetId="8" r:id="rId3"/>
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
     <sheet name="TMAC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
@@ -109,9 +109,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated Status </t>
-  </si>
-  <si>
     <t>Disabled</t>
   </si>
   <si>
@@ -143,36 +140,39 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Select [AGT_Broadcast_Messages].Message
-  ,[AGT_Broadcast_Messages].Status
-  ,[AGT_Teams] .TeamName as "Org. Unit"
-  From [AGT_Broadcast_Messages]
-Inner Join [AGT_Teams]  on [AGT_Teams].TeamID=[AGT_Broadcast_Messages].Location;</t>
-  </si>
-  <si>
     <t>Tetherfi Technology</t>
   </si>
   <si>
-    <t>evet</t>
-  </si>
-  <si>
     <t>Morning</t>
-  </si>
-  <si>
-    <t>Hap</t>
-  </si>
-  <si>
-    <t>unite</t>
   </si>
   <si>
     <t>Delete from [AGT_Broadcast_Messages] 
 where Message='Tetherfi Technology'</t>
   </si>
+  <si>
+    <t>Select [AGT_Teams] .TeamName as 'Org. Unit'
+  ,[AGT_Broadcast_Messages].Message
+  ,[AGT_Broadcast_Messages].Status
+  From [AGT_Broadcast_Messages]
+Inner Join [AGT_Teams]  on [AGT_Teams].TeamID=[AGT_Broadcast_Messages].Location Order By TeamName;</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Updated Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,31 +494,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -540,21 +541,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -563,7 +564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -577,7 +578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -600,24 +601,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -626,25 +627,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -667,29 +668,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -698,24 +699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD5F9C-5D3E-40D6-9D89-3C216C3C4088}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -732,15 +733,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -749,34 +750,32 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -784,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -798,36 +797,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -836,16 +835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -853,7 +852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>

--- a/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacBroadcastMsgData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C0BDFA-0364-4A9C-8886-0BDE2E179F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666AE9A4-C743-447C-8D04-03C1E5F752A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Updated Status</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,6 +696,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -702,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD5F9C-5D3E-40D6-9D89-3C216C3C4088}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
